--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -888,7 +888,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -896,34 +896,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6423,7 +6424,7 @@
         <v>97</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -6443,7 +6444,7 @@
         <v>99</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
@@ -6483,7 +6484,7 @@
         <v>103</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
@@ -6883,7 +6884,7 @@
         <v>192</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
@@ -8109,273 +8110,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6077BFF9-B68B-4B39-A300-C30DB77ACD9A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26EB94E4-E882-4253-98EE-76E335489D07}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EE26DEA-16F8-4FA4-BE0C-854523B76AEA}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="282">
   <si>
     <t>Sezione</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>62</t>
+  </si>
+  <si>
+    <t>62-bis</t>
   </si>
   <si>
     <t>63</t>
@@ -913,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G359"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1548,60 +1551,60 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1609,19 +1612,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1629,19 +1632,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1649,19 +1652,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1669,19 +1672,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1689,19 +1692,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1709,19 +1712,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1729,19 +1732,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1749,19 +1752,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1769,19 +1772,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1789,19 +1792,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1809,19 +1812,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1829,19 +1832,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1849,19 +1852,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1869,19 +1872,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1889,19 +1892,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1909,59 +1912,59 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1969,19 +1972,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1989,19 +1992,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -2009,19 +2012,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -2029,19 +2032,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2049,59 +2052,59 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2109,19 +2112,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2129,19 +2132,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2149,19 +2152,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2169,19 +2172,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2189,99 +2192,99 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2289,19 +2292,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2309,19 +2312,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2329,19 +2332,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2349,79 +2352,79 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -2429,39 +2432,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2469,19 +2472,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2489,59 +2492,59 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2549,19 +2552,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2569,19 +2572,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2589,19 +2592,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2609,19 +2612,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2629,99 +2632,99 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2729,19 +2732,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2749,19 +2752,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2769,19 +2772,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2789,79 +2792,79 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
@@ -2869,39 +2872,39 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2909,19 +2912,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2929,39 +2932,39 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>16</v>
@@ -2969,19 +2972,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>16</v>
@@ -2989,19 +2992,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>16</v>
@@ -3009,299 +3012,299 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>16</v>
@@ -3309,19 +3312,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>16</v>
@@ -3329,19 +3332,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>16</v>
@@ -3349,19 +3352,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>16</v>
@@ -3369,19 +3372,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>16</v>
@@ -3389,19 +3392,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>16</v>
@@ -3409,19 +3412,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
@@ -3429,19 +3432,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>16</v>
@@ -3449,299 +3452,299 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>16</v>
@@ -3749,19 +3752,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -3769,19 +3772,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -3789,19 +3792,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -3809,39 +3812,39 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3849,19 +3852,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3869,19 +3872,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3889,19 +3892,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3909,19 +3912,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3929,19 +3932,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3949,19 +3952,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3969,19 +3972,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3989,19 +3992,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -4009,19 +4012,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -4029,19 +4032,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -4049,19 +4052,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4069,19 +4072,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4089,19 +4092,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4109,19 +4112,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4129,19 +4132,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4149,19 +4152,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4169,19 +4172,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4189,19 +4192,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4209,19 +4212,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4229,19 +4232,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4249,19 +4252,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4269,19 +4272,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4289,19 +4292,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4309,19 +4312,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4329,19 +4332,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4349,19 +4352,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4369,19 +4372,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4389,19 +4392,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4409,19 +4412,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4429,19 +4432,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4449,19 +4452,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4469,19 +4472,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4489,19 +4492,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4509,19 +4512,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4529,19 +4532,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4549,19 +4552,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4569,19 +4572,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4589,19 +4592,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4609,19 +4612,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4629,19 +4632,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4649,19 +4652,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4669,19 +4672,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4689,19 +4692,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4709,19 +4712,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4729,19 +4732,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4749,19 +4752,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4769,19 +4772,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4789,19 +4792,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4809,19 +4812,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4829,19 +4832,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4849,19 +4852,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4869,19 +4872,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4889,39 +4892,39 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>18</v>
@@ -4929,19 +4932,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>18</v>
@@ -4949,39 +4952,39 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4989,19 +4992,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -5009,19 +5012,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -5029,19 +5032,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5049,19 +5052,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5069,19 +5072,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>178</v>
@@ -5098,10 +5101,10 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5109,19 +5112,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>181</v>
@@ -5138,10 +5141,10 @@
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5149,19 +5152,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5169,19 +5172,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5189,39 +5192,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F214" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>19</v>
@@ -5229,39 +5232,39 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5269,99 +5272,99 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F218" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5369,19 +5372,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5389,19 +5392,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5409,19 +5412,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5429,19 +5432,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>9</v>
@@ -5449,19 +5452,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5469,7 +5472,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>178</v>
@@ -5478,10 +5481,10 @@
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5489,19 +5492,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>181</v>
@@ -5518,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5529,19 +5532,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5549,19 +5552,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5569,39 +5572,39 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -5609,19 +5612,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -5629,39 +5632,39 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5669,19 +5672,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5689,19 +5692,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5709,39 +5712,39 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>20</v>
@@ -5749,19 +5752,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>20</v>
@@ -5769,39 +5772,39 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="E243" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5809,19 +5812,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5829,19 +5832,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5852,36 +5855,36 @@
         <v>208</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>21</v>
@@ -5889,19 +5892,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>21</v>
@@ -5909,39 +5912,39 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F250" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5949,19 +5952,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5969,19 +5972,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5989,39 +5992,39 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="E254" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>22</v>
@@ -6029,19 +6032,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>22</v>
@@ -6049,39 +6052,39 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F257" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6089,19 +6092,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6109,19 +6112,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6129,39 +6132,39 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>23</v>
@@ -6169,19 +6172,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>23</v>
@@ -6189,39 +6192,39 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F264" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6229,19 +6232,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6249,19 +6252,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6269,19 +6272,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E268" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6289,39 +6292,39 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>9</v>
@@ -6329,19 +6332,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6349,19 +6352,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6369,19 +6372,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6389,19 +6392,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6409,19 +6412,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6429,59 +6432,59 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6489,39 +6492,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6529,19 +6532,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6549,19 +6552,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6569,19 +6572,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6589,19 +6592,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6609,19 +6612,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6629,19 +6632,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6649,19 +6652,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6669,19 +6672,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6689,19 +6692,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6709,19 +6712,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6729,19 +6732,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6749,19 +6752,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6769,19 +6772,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6789,19 +6792,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6809,19 +6812,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6829,19 +6832,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6849,10 +6852,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -6861,7 +6864,7 @@
         <v>232</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6869,19 +6872,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6889,39 +6892,39 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6929,19 +6932,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6949,19 +6952,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6969,19 +6972,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6989,19 +6992,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E304" s="2" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7009,19 +7012,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7029,99 +7032,99 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="E306" s="2" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F307" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7129,19 +7132,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7149,19 +7152,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7169,39 +7172,39 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="E313" s="2" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>16</v>
@@ -7209,79 +7212,79 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F315" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F316" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E317" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F317" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7289,19 +7292,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E319" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7309,19 +7312,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E320" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7329,10 +7332,10 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -7341,67 +7344,67 @@
         <v>242</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E322" s="2" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>246</v>
@@ -7409,319 +7412,319 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F325" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E326" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F326" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F327" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F328" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E329" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E329" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F329" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F330" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F331" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F332" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E333" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F333" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E334" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F334" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F335" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F336" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E337" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F337" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F338" s="2" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F339" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E340" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>246</v>
@@ -7729,139 +7732,139 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E341" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F341" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E342" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F342" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E343" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F343" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F344" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E345" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="F345" s="2" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F346" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E347" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
@@ -7869,19 +7872,19 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E348" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>9</v>
@@ -7889,19 +7892,19 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -7909,19 +7912,19 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>9</v>
@@ -7929,19 +7932,19 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -7949,19 +7952,19 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -7969,19 +7972,19 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -7989,19 +7992,19 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>9</v>
@@ -8009,19 +8012,19 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8029,19 +8032,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8049,19 +8052,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8069,19 +8072,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8089,21 +8092,41 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E359" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F359" s="2" t="s">
+      <c r="C360" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F360" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="284">
   <si>
     <t>Sezione</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.segretarioComunale</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -916,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6547,7 +6553,7 @@
         <v>108</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282">
@@ -6587,7 +6593,7 @@
         <v>112</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284">
@@ -6627,7 +6633,7 @@
         <v>116</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -7052,99 +7058,99 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D307" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E307" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F307" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7152,19 +7158,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7172,19 +7178,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7192,10 +7198,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
@@ -7204,27 +7210,27 @@
         <v>239</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
+      <c r="E315" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>16</v>
@@ -7232,79 +7238,79 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7312,19 +7318,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7332,19 +7338,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7352,30 +7358,30 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -7384,461 +7390,461 @@
         <v>245</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F345" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>73</v>
@@ -7847,38 +7853,38 @@
         <v>252</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E347" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F347" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>73</v>
@@ -7892,16 +7898,16 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>259</v>
@@ -7912,7 +7918,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>260</v>
@@ -7921,7 +7927,7 @@
         <v>17</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>261</v>
@@ -7932,7 +7938,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>262</v>
@@ -7952,7 +7958,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>264</v>
@@ -7972,7 +7978,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>266</v>
@@ -7992,7 +7998,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>268</v>
@@ -8012,7 +8018,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>270</v>
@@ -8032,7 +8038,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>272</v>
@@ -8052,7 +8058,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>274</v>
@@ -8072,7 +8078,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>276</v>
@@ -8092,7 +8098,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>278</v>
@@ -8101,7 +8107,7 @@
         <v>17</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>279</v>
@@ -8112,7 +8118,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>280</v>
@@ -8127,6 +8133,26 @@
         <v>281</v>
       </c>
       <c r="F360" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F361" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="297">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -864,6 +885,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -922,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G361"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1078,13 +1117,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1098,13 +1137,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1118,10 +1157,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1138,10 +1177,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1158,10 +1197,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1178,10 +1217,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1198,10 +1237,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1218,13 +1257,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1238,13 +1277,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1258,7 +1297,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1278,7 +1317,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1298,7 +1337,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1318,7 +1357,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1338,7 +1377,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1358,7 +1397,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1378,7 +1417,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1398,7 +1437,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -1418,7 +1457,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1438,7 +1477,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1458,7 +1497,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -1478,7 +1517,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
@@ -1498,7 +1537,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
@@ -1518,7 +1557,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>39</v>
@@ -1538,7 +1577,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -1558,7 +1597,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
@@ -1577,40 +1616,40 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1618,19 +1657,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1638,19 +1677,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1658,19 +1697,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1678,19 +1717,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1698,59 +1737,59 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1758,19 +1797,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1778,19 +1817,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1798,19 +1837,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1818,19 +1857,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1838,19 +1877,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1858,19 +1897,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1878,19 +1917,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1898,19 +1937,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1918,19 +1957,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1938,39 +1977,39 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1978,19 +2017,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1998,19 +2037,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -2018,19 +2057,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -2038,19 +2077,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2058,19 +2097,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2078,39 +2117,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2118,19 +2157,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2138,19 +2177,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2158,19 +2197,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2178,19 +2217,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2198,19 +2237,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2218,39 +2257,39 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2258,39 +2297,39 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2298,19 +2337,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2318,19 +2357,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2338,19 +2377,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2358,119 +2397,119 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2478,19 +2517,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2498,19 +2537,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2518,39 +2557,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2558,59 +2597,59 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2618,19 +2657,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2638,19 +2677,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2658,39 +2697,39 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2698,39 +2737,39 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2738,19 +2777,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2758,19 +2797,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2778,19 +2817,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2798,119 +2837,119 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2918,19 +2957,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2938,19 +2977,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2958,99 +2997,99 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -3058,39 +3097,39 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3098,779 +3137,779 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3878,119 +3917,119 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3998,19 +4037,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -4018,19 +4057,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -4038,19 +4077,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -4058,19 +4097,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4078,19 +4117,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4098,19 +4137,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4118,19 +4157,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4138,19 +4177,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4158,19 +4197,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4178,19 +4217,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4198,19 +4237,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4218,19 +4257,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4238,19 +4277,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4258,19 +4297,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4278,19 +4317,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4298,19 +4337,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4318,19 +4357,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4338,19 +4377,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4358,19 +4397,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4378,19 +4417,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4398,19 +4437,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4418,19 +4457,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4438,19 +4477,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4458,19 +4497,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4478,19 +4517,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4498,19 +4537,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4518,19 +4557,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4538,19 +4577,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4558,19 +4597,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4578,19 +4617,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4598,19 +4637,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4618,19 +4657,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4638,19 +4677,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4658,19 +4697,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4678,19 +4717,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4698,19 +4737,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4718,19 +4757,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4738,19 +4777,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4758,19 +4797,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4778,19 +4817,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4798,19 +4837,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4818,19 +4857,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4838,19 +4877,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4858,19 +4897,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E197" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4878,19 +4917,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4898,19 +4937,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4918,79 +4957,79 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4998,19 +5037,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -5018,19 +5057,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -5038,19 +5077,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5058,79 +5097,79 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5138,19 +5177,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5158,19 +5197,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5178,19 +5217,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5198,19 +5237,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5218,59 +5257,59 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5278,19 +5317,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5298,39 +5337,39 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5338,79 +5377,79 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5418,19 +5457,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5438,39 +5477,39 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5478,39 +5517,39 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5518,19 +5557,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5538,19 +5577,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5558,19 +5597,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5578,19 +5617,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5598,79 +5637,79 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5678,19 +5717,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5698,19 +5737,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5718,19 +5757,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5738,79 +5777,79 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5818,19 +5857,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5838,19 +5877,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5858,19 +5897,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5878,79 +5917,79 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5958,19 +5997,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5978,19 +6017,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5998,19 +6037,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -6018,79 +6057,79 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6098,19 +6137,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6118,19 +6157,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6138,19 +6177,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6158,79 +6197,79 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6238,19 +6277,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6258,19 +6297,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6278,19 +6317,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6298,79 +6337,79 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E271" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6378,19 +6417,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6398,19 +6437,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6418,19 +6457,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6438,59 +6477,59 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F277" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6498,39 +6537,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6538,39 +6577,39 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6578,99 +6617,99 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6678,39 +6717,39 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6718,39 +6757,39 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6758,39 +6797,39 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6798,19 +6837,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6818,19 +6857,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6838,19 +6877,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6858,19 +6897,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6878,19 +6917,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6898,39 +6937,39 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6938,19 +6977,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6958,19 +6997,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6978,19 +7017,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -6998,19 +7037,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7021,16 +7060,16 @@
         <v>234</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7041,19 +7080,19 @@
         <v>234</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307">
@@ -7061,16 +7100,16 @@
         <v>234</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7078,39 +7117,39 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7118,39 +7157,39 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7158,19 +7197,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7178,19 +7217,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7198,19 +7237,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7218,99 +7257,99 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7318,19 +7357,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7338,19 +7377,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7358,139 +7397,139 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7498,499 +7537,499 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -7998,39 +8037,39 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8038,19 +8077,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8058,19 +8097,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8078,19 +8117,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8098,19 +8137,19 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8118,19 +8157,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8138,21 +8177,201 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E364" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E361" s="2" t="s">
+      <c r="F364" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F361" s="2" t="s">
+      <c r="C365" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F370" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -4903,7 +4903,7 @@
         <v>67</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>159</v>
@@ -4923,7 +4923,7 @@
         <v>69</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>159</v>
@@ -4943,7 +4943,7 @@
         <v>71</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>159</v>
@@ -4963,7 +4963,7 @@
         <v>73</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>159</v>
@@ -4972,7 +4972,7 @@
         <v>161</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -4983,7 +4983,7 @@
         <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>159</v>
@@ -4992,7 +4992,7 @@
         <v>163</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202">
@@ -5003,7 +5003,7 @@
         <v>164</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>159</v>
@@ -5012,7 +5012,7 @@
         <v>165</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="298">
   <si>
     <t>Sezione</t>
   </si>
@@ -275,6 +275,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -599,7 +602,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -1283,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2100,7 +2103,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
@@ -2109,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2120,7 +2123,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -2129,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>23</v>
@@ -2140,7 +2143,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
@@ -2149,7 +2152,7 @@
         <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2157,10 +2160,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
@@ -2169,7 +2172,7 @@
         <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2177,10 +2180,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
@@ -2189,7 +2192,7 @@
         <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2197,10 +2200,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
@@ -2209,7 +2212,7 @@
         <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2217,10 +2220,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
@@ -2229,7 +2232,7 @@
         <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2237,10 +2240,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
@@ -2249,7 +2252,7 @@
         <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2257,39 +2260,39 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2297,19 +2300,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2317,19 +2320,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2337,19 +2340,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2357,19 +2360,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2377,19 +2380,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2397,19 +2400,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>23</v>
@@ -2417,19 +2420,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2437,19 +2440,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>23</v>
@@ -2457,19 +2460,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2477,19 +2480,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2497,19 +2500,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2517,19 +2520,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2537,19 +2540,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2557,19 +2560,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>23</v>
@@ -2577,19 +2580,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2597,19 +2600,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>23</v>
@@ -2617,19 +2620,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>23</v>
@@ -2637,19 +2640,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2657,19 +2660,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2677,19 +2680,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2697,39 +2700,39 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2737,19 +2740,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2757,19 +2760,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2777,19 +2780,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2797,19 +2800,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2817,19 +2820,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2837,19 +2840,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>23</v>
@@ -2857,19 +2860,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2877,19 +2880,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>23</v>
@@ -2897,19 +2900,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2917,19 +2920,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2937,19 +2940,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2957,19 +2960,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2977,19 +2980,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2997,19 +3000,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>23</v>
@@ -3017,19 +3020,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -3037,19 +3040,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>23</v>
@@ -3057,19 +3060,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>23</v>
@@ -3077,19 +3080,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -3097,19 +3100,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -3117,19 +3120,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3137,19 +3140,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>23</v>
@@ -3157,19 +3160,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>23</v>
@@ -3177,19 +3180,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>23</v>
@@ -3197,19 +3200,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>23</v>
@@ -3217,19 +3220,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3237,19 +3240,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>23</v>
@@ -3257,19 +3260,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3277,19 +3280,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>23</v>
@@ -3297,19 +3300,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3317,19 +3320,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3337,19 +3340,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3357,19 +3360,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>23</v>
@@ -3377,19 +3380,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3397,19 +3400,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>23</v>
@@ -3417,19 +3420,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3437,19 +3440,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>23</v>
@@ -3457,19 +3460,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3477,19 +3480,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>23</v>
@@ -3497,19 +3500,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>23</v>
@@ -3517,19 +3520,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>23</v>
@@ -3537,19 +3540,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>23</v>
@@ -3557,19 +3560,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
@@ -3577,19 +3580,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3597,19 +3600,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>23</v>
@@ -3617,19 +3620,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>23</v>
@@ -3637,19 +3640,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3657,19 +3660,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3677,19 +3680,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>23</v>
@@ -3697,19 +3700,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3717,19 +3720,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>23</v>
@@ -3737,19 +3740,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3757,19 +3760,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3777,19 +3780,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3797,19 +3800,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>23</v>
@@ -3817,19 +3820,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3837,19 +3840,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>23</v>
@@ -3857,19 +3860,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3877,19 +3880,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>23</v>
@@ -3897,19 +3900,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3917,19 +3920,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>23</v>
@@ -3937,19 +3940,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -3957,19 +3960,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>23</v>
@@ -3977,19 +3980,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>23</v>
@@ -3997,19 +4000,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>23</v>
@@ -4017,19 +4020,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -4037,19 +4040,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -4057,19 +4060,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -4077,19 +4080,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -4097,19 +4100,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4117,19 +4120,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4137,19 +4140,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4157,19 +4160,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4177,19 +4180,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>9</v>
@@ -4197,19 +4200,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4217,19 +4220,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>9</v>
@@ -4237,19 +4240,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4257,19 +4260,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4277,19 +4280,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4297,19 +4300,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4317,19 +4320,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4337,19 +4340,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4357,19 +4360,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4377,19 +4380,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4397,19 +4400,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4417,19 +4420,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4437,19 +4440,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4457,19 +4460,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>9</v>
@@ -4477,19 +4480,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4497,19 +4500,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>9</v>
@@ -4517,19 +4520,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4537,19 +4540,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4557,19 +4560,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4577,19 +4580,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4597,19 +4600,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4617,19 +4620,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4637,19 +4640,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4657,19 +4660,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4677,19 +4680,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4697,19 +4700,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4717,19 +4720,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4737,19 +4740,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4757,19 +4760,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4777,19 +4780,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4797,19 +4800,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4817,19 +4820,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4837,19 +4840,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4857,19 +4860,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4877,19 +4880,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>67</v>
@@ -4906,7 +4909,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>68</v>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>69</v>
@@ -4926,10 +4929,10 @@
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>71</v>
@@ -4946,7 +4949,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>72</v>
@@ -4957,7 +4960,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>73</v>
@@ -4966,10 +4969,10 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>25</v>
@@ -4977,19 +4980,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>25</v>
@@ -4997,19 +5000,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>25</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
@@ -5029,7 +5032,7 @@
         <v>80</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -5037,16 +5040,16 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>68</v>
@@ -5057,7 +5060,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>69</v>
@@ -5066,10 +5069,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -5077,7 +5080,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>71</v>
@@ -5086,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>72</v>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>73</v>
@@ -5106,10 +5109,10 @@
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>25</v>
@@ -5117,19 +5120,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>25</v>
@@ -5137,19 +5140,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>25</v>
@@ -5157,19 +5160,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5177,19 +5180,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5197,19 +5200,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5217,19 +5220,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5237,19 +5240,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5257,19 +5260,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5277,16 +5280,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>52</v>
@@ -5297,19 +5300,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5317,16 +5320,16 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>54</v>
@@ -5337,19 +5340,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5357,19 +5360,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5377,19 +5380,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5397,19 +5400,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>26</v>
@@ -5417,19 +5420,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>26</v>
@@ -5437,19 +5440,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5457,19 +5460,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5477,19 +5480,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>26</v>
@@ -5497,19 +5500,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5517,19 +5520,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>26</v>
@@ -5537,19 +5540,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5557,19 +5560,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5577,19 +5580,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5597,19 +5600,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5617,19 +5620,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5637,19 +5640,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5657,16 +5660,16 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>52</v>
@@ -5677,19 +5680,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5697,16 +5700,16 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>54</v>
@@ -5717,19 +5720,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5737,19 +5740,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5757,19 +5760,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5777,19 +5780,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>27</v>
@@ -5797,19 +5800,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>27</v>
@@ -5817,19 +5820,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>27</v>
@@ -5837,19 +5840,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5857,19 +5860,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5877,19 +5880,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>9</v>
@@ -5897,19 +5900,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>9</v>
@@ -5917,19 +5920,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E248" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>27</v>
@@ -5937,19 +5940,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>27</v>
@@ -5957,19 +5960,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>27</v>
@@ -5977,19 +5980,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5997,19 +6000,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E252" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -6017,19 +6020,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E253" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -6037,19 +6040,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E254" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -6057,19 +6060,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>28</v>
@@ -6077,19 +6080,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>28</v>
@@ -6097,19 +6100,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>28</v>
@@ -6117,19 +6120,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6137,19 +6140,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6157,19 +6160,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6177,19 +6180,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6197,19 +6200,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>29</v>
@@ -6217,19 +6220,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>29</v>
@@ -6237,19 +6240,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>29</v>
@@ -6257,19 +6260,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6277,19 +6280,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6297,19 +6300,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6317,19 +6320,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6337,19 +6340,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>30</v>
@@ -6357,19 +6360,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>30</v>
@@ -6377,19 +6380,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>30</v>
@@ -6397,19 +6400,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6417,19 +6420,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6437,19 +6440,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6457,19 +6460,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6477,19 +6480,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>32</v>
@@ -6497,19 +6500,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6517,19 +6520,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6537,19 +6540,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6557,19 +6560,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6577,19 +6580,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6597,19 +6600,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6617,19 +6620,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>31</v>
@@ -6637,19 +6640,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>31</v>
@@ -6657,19 +6660,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6677,19 +6680,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>31</v>
@@ -6697,19 +6700,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6717,19 +6720,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>31</v>
@@ -6737,19 +6740,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6757,19 +6760,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>31</v>
@@ -6777,19 +6780,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6797,19 +6800,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>31</v>
@@ -6817,19 +6820,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6837,19 +6840,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6857,19 +6860,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6877,19 +6880,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6897,19 +6900,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6917,19 +6920,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6937,19 +6940,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6957,19 +6960,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6977,19 +6980,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6997,19 +7000,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -7017,19 +7020,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>9</v>
@@ -7037,19 +7040,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7057,19 +7060,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7077,19 +7080,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>31</v>
@@ -7097,19 +7100,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7117,19 +7120,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7137,19 +7140,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7157,19 +7160,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7177,19 +7180,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7197,19 +7200,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7217,19 +7220,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7237,10 +7240,10 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>24</v>
@@ -7249,7 +7252,7 @@
         <v>80</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7257,19 +7260,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>23</v>
@@ -7277,19 +7280,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7297,19 +7300,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>23</v>
@@ -7317,19 +7320,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7337,19 +7340,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7357,19 +7360,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7377,19 +7380,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7397,19 +7400,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>23</v>
@@ -7417,19 +7420,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>23</v>
@@ -7437,19 +7440,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7457,19 +7460,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>23</v>
@@ -7477,19 +7480,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7497,19 +7500,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7517,19 +7520,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7537,19 +7540,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7557,19 +7560,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>23</v>
@@ -7577,99 +7580,99 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7677,39 +7680,39 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -7717,39 +7720,39 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -7757,39 +7760,39 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -7797,39 +7800,39 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -7837,39 +7840,39 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>9</v>
@@ -7877,39 +7880,39 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>9</v>
@@ -7917,110 +7920,110 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>24</v>
@@ -8029,7 +8032,7 @@
         <v>80</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -8037,10 +8040,10 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>8</v>
@@ -8049,18 +8052,18 @@
         <v>80</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>24</v>
@@ -8069,7 +8072,7 @@
         <v>80</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8077,10 +8080,10 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>8</v>
@@ -8089,7 +8092,7 @@
         <v>80</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8097,10 +8100,10 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>24</v>
@@ -8109,7 +8112,7 @@
         <v>51</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8117,10 +8120,10 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>24</v>
@@ -8129,7 +8132,7 @@
         <v>80</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8137,10 +8140,10 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>24</v>
@@ -8149,7 +8152,7 @@
         <v>80</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8157,10 +8160,10 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>24</v>
@@ -8169,7 +8172,7 @@
         <v>80</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8177,10 +8180,10 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>24</v>
@@ -8189,7 +8192,7 @@
         <v>80</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>9</v>
@@ -8197,10 +8200,10 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>24</v>
@@ -8209,7 +8212,7 @@
         <v>80</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -8217,10 +8220,10 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>24</v>
@@ -8229,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -8237,10 +8240,10 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>24</v>
@@ -8249,7 +8252,7 @@
         <v>80</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -8257,10 +8260,10 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>24</v>
@@ -8269,7 +8272,7 @@
         <v>80</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -8277,19 +8280,19 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>9</v>
@@ -8297,19 +8300,19 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>9</v>
@@ -8317,19 +8320,19 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>9</v>
@@ -8337,19 +8340,19 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>9</v>
@@ -8357,19 +8360,19 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="342">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -800,15 +800,12 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
     <t>Impedimento - Sposo</t>
   </si>
   <si>
@@ -827,13 +824,13 @@
     <t>motivazione</t>
   </si>
   <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Impedimento - Sposa</t>
@@ -852,9 +849,6 @@
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -7669,7 +7663,7 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286">
@@ -7692,7 +7686,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287">
@@ -7715,7 +7709,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288">
@@ -7738,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
@@ -7761,7 +7755,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
@@ -7784,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291">
@@ -7807,7 +7801,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292">
@@ -7830,7 +7824,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293">
@@ -7853,7 +7847,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294">
@@ -7876,7 +7870,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295">
@@ -7899,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296">
@@ -7922,7 +7916,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297">
@@ -7945,7 +7939,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298">
@@ -7968,7 +7962,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299">
@@ -7991,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300">
@@ -8014,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301">
@@ -8037,7 +8031,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302">
@@ -8060,7 +8054,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303">
@@ -8083,7 +8077,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304">
@@ -8106,7 +8100,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
@@ -8129,7 +8123,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
@@ -8152,12 +8146,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>212</v>
@@ -8166,7 +8160,7 @@
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>214</v>
@@ -8175,12 +8169,12 @@
         <v>30</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>216</v>
@@ -8189,7 +8183,7 @@
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>217</v>
@@ -8198,12 +8192,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>218</v>
@@ -8212,7 +8206,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>219</v>
@@ -8221,12 +8215,12 @@
         <v>30</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>220</v>
@@ -8235,7 +8229,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>221</v>
@@ -8244,12 +8238,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>222</v>
@@ -8258,7 +8252,7 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>223</v>
@@ -8267,12 +8261,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>224</v>
@@ -8281,7 +8275,7 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>225</v>
@@ -8290,12 +8284,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>226</v>
@@ -8304,7 +8298,7 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>227</v>
@@ -8313,35 +8307,35 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D314" s="2" t="s">
+      <c r="E314" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>97</v>
@@ -8350,7 +8344,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>116</v>
@@ -8359,12 +8353,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>99</v>
@@ -8373,7 +8367,7 @@
         <v>31</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>118</v>
@@ -8382,12 +8376,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>119</v>
@@ -8396,7 +8390,7 @@
         <v>31</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>120</v>
@@ -8405,12 +8399,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>121</v>
@@ -8419,7 +8413,7 @@
         <v>31</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>122</v>
@@ -8428,12 +8422,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>123</v>
@@ -8442,7 +8436,7 @@
         <v>31</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>124</v>
@@ -8451,12 +8445,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>125</v>
@@ -8465,7 +8459,7 @@
         <v>31</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>126</v>
@@ -8474,12 +8468,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>127</v>
@@ -8488,7 +8482,7 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>128</v>
@@ -8497,12 +8491,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>129</v>
@@ -8511,7 +8505,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>130</v>
@@ -8520,12 +8514,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>131</v>
@@ -8534,7 +8528,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>132</v>
@@ -8543,12 +8537,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>133</v>
@@ -8557,7 +8551,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>134</v>
@@ -8566,12 +8560,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>135</v>
@@ -8580,7 +8574,7 @@
         <v>31</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>136</v>
@@ -8589,12 +8583,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>137</v>
@@ -8603,7 +8597,7 @@
         <v>31</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>138</v>
@@ -8612,12 +8606,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>139</v>
@@ -8626,7 +8620,7 @@
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>140</v>
@@ -8635,12 +8629,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>141</v>
@@ -8649,7 +8643,7 @@
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>142</v>
@@ -8658,12 +8652,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>143</v>
@@ -8672,7 +8666,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>144</v>
@@ -8681,12 +8675,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>145</v>
@@ -8695,7 +8689,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>146</v>
@@ -8704,12 +8698,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>147</v>
@@ -8718,7 +8712,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>148</v>
@@ -8727,12 +8721,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>149</v>
@@ -8741,7 +8735,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>150</v>
@@ -8750,12 +8744,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>151</v>
@@ -8764,7 +8758,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>152</v>
@@ -8773,12 +8767,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>153</v>
@@ -8787,7 +8781,7 @@
         <v>31</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>154</v>
@@ -8796,12 +8790,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>155</v>
@@ -8810,7 +8804,7 @@
         <v>31</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>156</v>
@@ -8819,12 +8813,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>157</v>
@@ -8833,7 +8827,7 @@
         <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>158</v>
@@ -8842,12 +8836,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>212</v>
@@ -8856,7 +8850,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>214</v>
@@ -8865,12 +8859,12 @@
         <v>30</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>216</v>
@@ -8879,7 +8873,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>217</v>
@@ -8888,12 +8882,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>218</v>
@@ -8902,7 +8896,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>219</v>
@@ -8911,12 +8905,12 @@
         <v>30</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>220</v>
@@ -8925,7 +8919,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>221</v>
@@ -8934,12 +8928,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>222</v>
@@ -8948,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>223</v>
@@ -8957,12 +8951,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>224</v>
@@ -8971,7 +8965,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>225</v>
@@ -8980,12 +8974,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>226</v>
@@ -8994,7 +8988,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>227</v>
@@ -9003,35 +8997,35 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>97</v>
@@ -9040,7 +9034,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>116</v>
@@ -9049,12 +9043,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>99</v>
@@ -9063,7 +9057,7 @@
         <v>31</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>118</v>
@@ -9072,12 +9066,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>119</v>
@@ -9086,7 +9080,7 @@
         <v>31</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>120</v>
@@ -9095,12 +9089,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>121</v>
@@ -9109,7 +9103,7 @@
         <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>122</v>
@@ -9118,12 +9112,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>123</v>
@@ -9132,7 +9126,7 @@
         <v>31</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>124</v>
@@ -9141,12 +9135,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>125</v>
@@ -9155,7 +9149,7 @@
         <v>31</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>126</v>
@@ -9164,12 +9158,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>127</v>
@@ -9178,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>128</v>
@@ -9187,12 +9181,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>129</v>
@@ -9201,7 +9195,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>130</v>
@@ -9210,12 +9204,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>131</v>
@@ -9224,7 +9218,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>132</v>
@@ -9233,12 +9227,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>133</v>
@@ -9247,7 +9241,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>134</v>
@@ -9256,12 +9250,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>135</v>
@@ -9270,7 +9264,7 @@
         <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>136</v>
@@ -9279,12 +9273,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>137</v>
@@ -9293,7 +9287,7 @@
         <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>138</v>
@@ -9302,12 +9296,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>139</v>
@@ -9316,7 +9310,7 @@
         <v>31</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>140</v>
@@ -9325,12 +9319,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>141</v>
@@ -9339,7 +9333,7 @@
         <v>31</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>142</v>
@@ -9348,12 +9342,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>143</v>
@@ -9362,7 +9356,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>144</v>
@@ -9371,12 +9365,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>145</v>
@@ -9385,7 +9379,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>146</v>
@@ -9394,12 +9388,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>147</v>
@@ -9408,7 +9402,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>148</v>
@@ -9417,12 +9411,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>149</v>
@@ -9431,7 +9425,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>150</v>
@@ -9440,12 +9434,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>151</v>
@@ -9454,7 +9448,7 @@
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>152</v>
@@ -9463,12 +9457,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>153</v>
@@ -9477,7 +9471,7 @@
         <v>31</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>154</v>
@@ -9486,12 +9480,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>155</v>
@@ -9500,7 +9494,7 @@
         <v>31</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>156</v>
@@ -9509,12 +9503,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>157</v>
@@ -9523,7 +9517,7 @@
         <v>31</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>158</v>
@@ -9532,12 +9526,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>97</v>
@@ -9546,7 +9540,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>116</v>
@@ -9555,12 +9549,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>99</v>
@@ -9569,7 +9563,7 @@
         <v>31</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>118</v>
@@ -9578,12 +9572,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>119</v>
@@ -9592,7 +9586,7 @@
         <v>31</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>120</v>
@@ -9601,12 +9595,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>121</v>
@@ -9615,7 +9609,7 @@
         <v>31</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>122</v>
@@ -9624,12 +9618,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>123</v>
@@ -9638,7 +9632,7 @@
         <v>31</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>124</v>
@@ -9647,12 +9641,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>125</v>
@@ -9661,7 +9655,7 @@
         <v>31</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>126</v>
@@ -9670,12 +9664,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>127</v>
@@ -9684,7 +9678,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>128</v>
@@ -9693,12 +9687,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>129</v>
@@ -9707,7 +9701,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>130</v>
@@ -9716,12 +9710,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>131</v>
@@ -9730,7 +9724,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>132</v>
@@ -9739,12 +9733,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>133</v>
@@ -9753,7 +9747,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>134</v>
@@ -9762,12 +9756,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>135</v>
@@ -9776,7 +9770,7 @@
         <v>31</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>136</v>
@@ -9785,12 +9779,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>137</v>
@@ -9799,7 +9793,7 @@
         <v>31</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>138</v>
@@ -9808,12 +9802,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>139</v>
@@ -9822,7 +9816,7 @@
         <v>31</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>140</v>
@@ -9831,12 +9825,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>141</v>
@@ -9845,7 +9839,7 @@
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>142</v>
@@ -9854,12 +9848,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>143</v>
@@ -9868,7 +9862,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>144</v>
@@ -9877,12 +9871,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>145</v>
@@ -9891,7 +9885,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>146</v>
@@ -9900,12 +9894,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>147</v>
@@ -9914,7 +9908,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>148</v>
@@ -9923,12 +9917,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>149</v>
@@ -9937,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>150</v>
@@ -9946,12 +9940,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>151</v>
@@ -9960,7 +9954,7 @@
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>152</v>
@@ -9969,12 +9963,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>153</v>
@@ -9983,7 +9977,7 @@
         <v>31</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>154</v>
@@ -9992,12 +9986,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>155</v>
@@ -10006,7 +10000,7 @@
         <v>31</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>156</v>
@@ -10015,12 +10009,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>157</v>
@@ -10029,7 +10023,7 @@
         <v>31</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>158</v>
@@ -10038,12 +10032,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>97</v>
@@ -10061,12 +10055,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>99</v>
@@ -10084,12 +10078,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>119</v>
@@ -10107,12 +10101,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>121</v>
@@ -10130,12 +10124,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>123</v>
@@ -10153,12 +10147,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>125</v>
@@ -10176,12 +10170,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>127</v>
@@ -10199,12 +10193,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>129</v>
@@ -10222,12 +10216,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>131</v>
@@ -10245,12 +10239,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>133</v>
@@ -10268,12 +10262,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>135</v>
@@ -10291,12 +10285,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>137</v>
@@ -10314,12 +10308,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>139</v>
@@ -10337,12 +10331,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>141</v>
@@ -10360,12 +10354,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>143</v>
@@ -10383,12 +10377,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>145</v>
@@ -10406,12 +10400,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>147</v>
@@ -10429,12 +10423,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>149</v>
@@ -10452,12 +10446,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>151</v>
@@ -10475,12 +10469,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>153</v>
@@ -10498,12 +10492,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>155</v>
@@ -10521,12 +10515,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>157</v>
@@ -10544,12 +10538,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>97</v>
@@ -10567,12 +10561,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>99</v>
@@ -10590,12 +10584,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>119</v>
@@ -10613,12 +10607,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>121</v>
@@ -10636,12 +10630,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>123</v>
@@ -10659,12 +10653,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>125</v>
@@ -10682,12 +10676,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>127</v>
@@ -10705,12 +10699,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>129</v>
@@ -10728,12 +10722,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>131</v>
@@ -10751,12 +10745,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>133</v>
@@ -10774,12 +10768,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>135</v>
@@ -10797,12 +10791,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>137</v>
@@ -10820,12 +10814,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>139</v>
@@ -10843,12 +10837,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>141</v>
@@ -10866,12 +10860,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>143</v>
@@ -10889,12 +10883,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>145</v>
@@ -10912,12 +10906,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>147</v>
@@ -10935,12 +10929,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>149</v>
@@ -10958,12 +10952,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>151</v>
@@ -10981,12 +10975,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>153</v>
@@ -11004,12 +10998,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>155</v>
@@ -11027,12 +11021,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>157</v>
@@ -11050,12 +11044,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>212</v>
@@ -11064,7 +11058,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>214</v>
@@ -11073,12 +11067,12 @@
         <v>38</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>216</v>
@@ -11087,7 +11081,7 @@
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>217</v>
@@ -11096,12 +11090,12 @@
         <v>38</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>218</v>
@@ -11110,7 +11104,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>219</v>
@@ -11119,12 +11113,12 @@
         <v>38</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>220</v>
@@ -11133,7 +11127,7 @@
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>221</v>
@@ -11142,12 +11136,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>222</v>
@@ -11156,7 +11150,7 @@
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>223</v>
@@ -11165,12 +11159,12 @@
         <v>38</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>224</v>
@@ -11179,7 +11173,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>225</v>
@@ -11188,12 +11182,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>226</v>
@@ -11202,7 +11196,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>227</v>
@@ -11211,12 +11205,12 @@
         <v>38</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>97</v>
@@ -11225,7 +11219,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>116</v>
@@ -11234,12 +11228,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>99</v>
@@ -11248,7 +11242,7 @@
         <v>31</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>118</v>
@@ -11257,12 +11251,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>119</v>
@@ -11271,7 +11265,7 @@
         <v>31</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>120</v>
@@ -11280,12 +11274,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>121</v>
@@ -11294,7 +11288,7 @@
         <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>122</v>
@@ -11303,12 +11297,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>123</v>
@@ -11317,7 +11311,7 @@
         <v>31</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>124</v>
@@ -11326,12 +11320,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>125</v>
@@ -11340,7 +11334,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>126</v>
@@ -11349,12 +11343,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>127</v>
@@ -11363,7 +11357,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>128</v>
@@ -11372,12 +11366,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>129</v>
@@ -11386,7 +11380,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>130</v>
@@ -11395,12 +11389,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>131</v>
@@ -11409,7 +11403,7 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>132</v>
@@ -11418,12 +11412,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>133</v>
@@ -11432,7 +11426,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>134</v>
@@ -11441,12 +11435,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>135</v>
@@ -11455,7 +11449,7 @@
         <v>31</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>136</v>
@@ -11464,12 +11458,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>137</v>
@@ -11478,7 +11472,7 @@
         <v>31</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>138</v>
@@ -11487,12 +11481,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>139</v>
@@ -11501,7 +11495,7 @@
         <v>31</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>140</v>
@@ -11510,12 +11504,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>141</v>
@@ -11524,7 +11518,7 @@
         <v>31</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>142</v>
@@ -11533,12 +11527,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>143</v>
@@ -11547,7 +11541,7 @@
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>144</v>
@@ -11556,12 +11550,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>145</v>
@@ -11570,7 +11564,7 @@
         <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>146</v>
@@ -11579,12 +11573,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>147</v>
@@ -11593,7 +11587,7 @@
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>148</v>
@@ -11602,12 +11596,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>149</v>
@@ -11616,7 +11610,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>150</v>
@@ -11625,12 +11619,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>151</v>
@@ -11639,7 +11633,7 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>152</v>
@@ -11648,12 +11642,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>153</v>
@@ -11662,7 +11656,7 @@
         <v>31</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>154</v>
@@ -11671,12 +11665,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>155</v>
@@ -11685,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>156</v>
@@ -11694,12 +11688,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>157</v>
@@ -11708,7 +11702,7 @@
         <v>31</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>158</v>
@@ -11717,12 +11711,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>97</v>
@@ -11731,7 +11725,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>116</v>
@@ -11740,12 +11734,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>99</v>
@@ -11754,7 +11748,7 @@
         <v>31</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>118</v>
@@ -11763,12 +11757,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>119</v>
@@ -11777,7 +11771,7 @@
         <v>31</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>120</v>
@@ -11786,12 +11780,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>121</v>
@@ -11800,7 +11794,7 @@
         <v>31</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>122</v>
@@ -11809,12 +11803,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>123</v>
@@ -11823,7 +11817,7 @@
         <v>31</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>124</v>
@@ -11832,12 +11826,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>125</v>
@@ -11846,7 +11840,7 @@
         <v>31</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>126</v>
@@ -11855,12 +11849,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>127</v>
@@ -11869,7 +11863,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>128</v>
@@ -11878,12 +11872,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>129</v>
@@ -11892,7 +11886,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>130</v>
@@ -11901,12 +11895,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>131</v>
@@ -11915,7 +11909,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>132</v>
@@ -11924,12 +11918,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>133</v>
@@ -11938,7 +11932,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>134</v>
@@ -11947,12 +11941,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>135</v>
@@ -11961,7 +11955,7 @@
         <v>31</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>136</v>
@@ -11970,12 +11964,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>137</v>
@@ -11984,7 +11978,7 @@
         <v>31</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>138</v>
@@ -11993,12 +11987,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>139</v>
@@ -12007,7 +12001,7 @@
         <v>31</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>140</v>
@@ -12016,12 +12010,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>141</v>
@@ -12030,7 +12024,7 @@
         <v>31</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>142</v>
@@ -12039,12 +12033,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>143</v>
@@ -12053,7 +12047,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>144</v>
@@ -12062,12 +12056,12 @@
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>145</v>
@@ -12076,7 +12070,7 @@
         <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>146</v>
@@ -12085,12 +12079,12 @@
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>147</v>
@@ -12099,7 +12093,7 @@
         <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>148</v>
@@ -12108,12 +12102,12 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>149</v>
@@ -12122,7 +12116,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>150</v>
@@ -12131,12 +12125,12 @@
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>151</v>
@@ -12145,7 +12139,7 @@
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>152</v>
@@ -12154,12 +12148,12 @@
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>153</v>
@@ -12168,7 +12162,7 @@
         <v>31</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>154</v>
@@ -12177,12 +12171,12 @@
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>155</v>
@@ -12191,7 +12185,7 @@
         <v>31</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>156</v>
@@ -12200,12 +12194,12 @@
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>157</v>
@@ -12214,7 +12208,7 @@
         <v>31</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>158</v>
@@ -12223,12 +12217,12 @@
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>212</v>
@@ -12237,7 +12231,7 @@
         <v>9</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>214</v>
@@ -12246,12 +12240,12 @@
         <v>38</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>216</v>
@@ -12260,7 +12254,7 @@
         <v>9</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>217</v>
@@ -12269,12 +12263,12 @@
         <v>38</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>218</v>
@@ -12283,7 +12277,7 @@
         <v>9</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>219</v>
@@ -12292,12 +12286,12 @@
         <v>38</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>220</v>
@@ -12306,7 +12300,7 @@
         <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>221</v>
@@ -12315,12 +12309,12 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>222</v>
@@ -12329,7 +12323,7 @@
         <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>223</v>
@@ -12338,12 +12332,12 @@
         <v>38</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>224</v>
@@ -12352,7 +12346,7 @@
         <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>225</v>
@@ -12361,12 +12355,12 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>226</v>
@@ -12375,7 +12369,7 @@
         <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>227</v>
@@ -12384,12 +12378,12 @@
         <v>38</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>97</v>
@@ -12398,21 +12392,21 @@
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>99</v>
@@ -12421,7 +12415,7 @@
         <v>31</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>118</v>
@@ -12430,12 +12424,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>119</v>
@@ -12444,7 +12438,7 @@
         <v>31</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>120</v>
@@ -12453,12 +12447,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>121</v>
@@ -12467,7 +12461,7 @@
         <v>31</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>122</v>
@@ -12476,12 +12470,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>123</v>
@@ -12490,7 +12484,7 @@
         <v>31</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>124</v>
@@ -12499,12 +12493,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>125</v>
@@ -12513,7 +12507,7 @@
         <v>31</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>126</v>
@@ -12522,12 +12516,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>127</v>
@@ -12536,7 +12530,7 @@
         <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>128</v>
@@ -12545,12 +12539,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>129</v>
@@ -12559,21 +12553,21 @@
         <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>131</v>
@@ -12582,7 +12576,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>132</v>
@@ -12591,12 +12585,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>133</v>
@@ -12605,21 +12599,21 @@
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>135</v>
@@ -12628,7 +12622,7 @@
         <v>31</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>136</v>
@@ -12637,12 +12631,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>137</v>
@@ -12651,7 +12645,7 @@
         <v>31</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>138</v>
@@ -12660,12 +12654,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>139</v>
@@ -12674,7 +12668,7 @@
         <v>31</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>140</v>
@@ -12683,12 +12677,12 @@
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>141</v>
@@ -12697,7 +12691,7 @@
         <v>31</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>142</v>
@@ -12706,12 +12700,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>143</v>
@@ -12720,7 +12714,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>144</v>
@@ -12729,12 +12723,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>145</v>
@@ -12743,21 +12737,21 @@
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>147</v>
@@ -12766,7 +12760,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>148</v>
@@ -12775,12 +12769,12 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>149</v>
@@ -12789,21 +12783,21 @@
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>151</v>
@@ -12812,21 +12806,21 @@
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>153</v>
@@ -12835,7 +12829,7 @@
         <v>31</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>154</v>
@@ -12844,12 +12838,12 @@
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>155</v>
@@ -12858,7 +12852,7 @@
         <v>31</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>156</v>
@@ -12867,12 +12861,12 @@
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>157</v>
@@ -12881,7 +12875,7 @@
         <v>31</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>158</v>
@@ -12890,15 +12884,15 @@
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>31</v>
@@ -12907,7 +12901,7 @@
         <v>88</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12918,10 +12912,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>9</v>
@@ -12930,10 +12924,10 @@
         <v>88</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G514" s="2" t="s">
         <v>60</v>
@@ -12941,10 +12935,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>31</v>
@@ -12953,7 +12947,7 @@
         <v>88</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12964,10 +12958,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>9</v>
@@ -12976,7 +12970,7 @@
         <v>88</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12987,10 +12981,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>31</v>
@@ -12999,7 +12993,7 @@
         <v>58</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -13010,10 +13004,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>31</v>
@@ -13022,7 +13016,7 @@
         <v>88</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -13033,10 +13027,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>31</v>
@@ -13045,7 +13039,7 @@
         <v>88</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -13056,10 +13050,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>31</v>
@@ -13068,7 +13062,7 @@
         <v>88</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -13079,10 +13073,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>31</v>
@@ -13091,7 +13085,7 @@
         <v>88</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -13102,10 +13096,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>31</v>
@@ -13114,7 +13108,7 @@
         <v>88</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13125,10 +13119,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>31</v>
@@ -13137,7 +13131,7 @@
         <v>88</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13148,10 +13142,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>31</v>
@@ -13160,7 +13154,7 @@
         <v>88</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13171,10 +13165,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>31</v>
@@ -13183,7 +13177,7 @@
         <v>88</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13194,10 +13188,10 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>31</v>
@@ -13206,7 +13200,7 @@
         <v>88</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
@@ -13217,10 +13211,10 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>31</v>
@@ -13229,7 +13223,7 @@
         <v>245</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
@@ -13240,10 +13234,10 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>31</v>
@@ -13252,7 +13246,7 @@
         <v>245</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
@@ -13263,48 +13257,48 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="E529" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C529" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D529" s="2" t="s">
+      <c r="F529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D530" s="2" t="s">
+      <c r="E530" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G530" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="E530" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F530" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="352">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,37 +47,37 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,true}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
   </si>
   <si>
     <t>Rigetto del Tribunale all'opposizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.rigettoOpposizione,=,true}</t>
+    <t>evento.datiEventoMatrimonio.rigettoOpposizione,=,true</t>
   </si>
   <si>
     <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.estintaOpposizione,=,true}</t>
+    <t>evento.datiEventoMatrimonio.estintaOpposizione,=,true</t>
   </si>
   <si>
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.difettoEta,!=,1}</t>
+    <t>evento.datiEventoMatrimonio.difettoEta,!=,1</t>
   </si>
   <si>
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.impedimentoParentela,!=,0}</t>
+    <t>evento.datiEventoMatrimonio.impedimentoParentela,!=,0</t>
   </si>
   <si>
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.divietoTemporaneo,=,true}</t>
+    <t>evento.datiEventoMatrimonio.divietoTemporaneo,=,true</t>
   </si>
   <si>
     <t>Copia integrale atto di nascita degli sposi</t>
@@ -506,7 +506,7 @@
     <t>evento.datiEventoMatrimonio.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -515,7 +515,7 @@
     <t>evento.datiEventoMatrimonio.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -524,7 +524,7 @@
     <t>evento.datiEventoMatrimonio.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -533,7 +533,7 @@
     <t>evento.datiEventoMatrimonio.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Pubblicazioni</t>
@@ -569,7 +569,7 @@
     <t>riduzioneTerminiPubblicazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false}</t>
+    <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
   </si>
   <si>
     <t>Provincia Comune</t>
@@ -662,7 +662,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,false}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -713,13 +713,16 @@
     <t>evento.datiEventoMatrimonio.provvedimentoRigettoOpposizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.rigettoOpposizione,=,false}</t>
+    <t>evento.datiEventoMatrimonio.rigettoOpposizione,=,false</t>
   </si>
   <si>
     <t>Opposizione - Estinzione giudizio</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.estintaOpposizione,=,false}</t>
+    <t>evento.datiEventoMatrimonio.provvedimentoEstinzioneOpposizione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.estintaOpposizione,=,false</t>
   </si>
   <si>
     <t>Impedimento - Difetto di età</t>
@@ -728,7 +731,7 @@
     <t>evento.datiEventoMatrimonio.autorizzazioneDifettoEta</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.difettoEta,=,1}</t>
+    <t>evento.datiEventoMatrimonio.difettoEta,=,1</t>
   </si>
   <si>
     <t>Impedimento - Parentela</t>
@@ -737,7 +740,7 @@
     <t>evento.datiEventoMatrimonio.autorizzazioneParentela</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.impedimentoParentela,=,0}</t>
+    <t>evento.datiEventoMatrimonio.impedimentoParentela,=,0</t>
   </si>
   <si>
     <t>Impedimento - Divieto temporaneo</t>
@@ -746,7 +749,7 @@
     <t>evento.datiEventoMatrimonio.autorizzazioneDivietoTemporaneo</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.divietoTemporaneo,=,false}</t>
+    <t>evento.datiEventoMatrimonio.divietoTemporaneo,=,false</t>
   </si>
   <si>
     <t>Legge regime patrimoniale</t>
@@ -758,7 +761,7 @@
     <t>legge</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,3}</t>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,3</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -770,7 +773,7 @@
     <t>nomeNotaio</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.attoNotarile,=,false}</t>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.attoNotarile,=,false</t>
   </si>
   <si>
     <t>Cognome Notaio</t>
@@ -803,10 +806,13 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Generalità padre Sposo - Matrimonio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.padreSposo</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,3)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposo,in,(2,4,5)</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -815,7 +821,7 @@
     <t>evento.datiEventoMatrimonio.impedimentoSposo.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.soggettoImpedimento,=,2}</t>
+    <t>evento.datiEventoMatrimonio.soggettoImpedimento,=,2</t>
   </si>
   <si>
     <t>Motivazione</t>
@@ -827,13 +833,13 @@
     <t>motivazione</t>
   </si>
   <si>
-    <t>Generalità padre Sposa - Matrimonio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.padreSposa</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,2)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposa,in,(2,4,5)</t>
   </si>
   <si>
     <t>Impedimento - Sposa</t>
@@ -842,7 +848,7 @@
     <t>evento.datiEventoMatrimonio.impedimentoSposa.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.soggettoImpedimento,=,1}</t>
+    <t>evento.datiEventoMatrimonio.soggettoImpedimento,=,1</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.impedimentoSposa</t>
@@ -851,58 +857,67 @@
     <t>Madre Sposo</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+    <t>evento.datiEventoMatrimonio.madreSposo</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,3)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposo,in,(1,4,5)</t>
   </si>
   <si>
     <t>Madre Sposa</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(1,4,5,99)}</t>
+    <t>evento.datiEventoMatrimonio.madreSposa</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,2)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposa,in,(1,4,5)</t>
   </si>
   <si>
     <t>Tutore Sposo</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,2,3,5,99)}</t>
+    <t>evento.datiEventoMatrimonio.assistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,3)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposo,in,(1,2,3,5)</t>
   </si>
   <si>
     <t>Curatore Sposo</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,2,3,4,99)}</t>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,3)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposo,in,(1,2,3,4)</t>
   </si>
   <si>
     <t>Nomina Legale Sposo</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,2,3,99)}</t>
+    <t>evento.datiEventoMatrimonio.nominaAssistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,3)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposo,in,(1,2,3)</t>
   </si>
   <si>
     <t>Tutore Sposa</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(1,2,3,5,99)}</t>
+    <t>evento.datiEventoMatrimonio.assistenteLegaleSposa</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,2)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposa,in,(1,2,3,5)</t>
   </si>
   <si>
     <t>Curatore Sposa</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(1,2,3,4,99)}</t>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,2)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposa,in,(1,2,3,4)</t>
   </si>
   <si>
     <t>Nomina Legale Sposa</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(1,2,3,99)}</t>
+    <t>evento.datiEventoMatrimonio.nominaAssistenteLegaleSposa</t>
+  </si>
+  <si>
+    <t>(evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,2 &amp;&amp; evento.datiEventoMatrimonio.difettoEta,in,(1,2)) || evento.datiEventoMatrimonio.regimePatrimoniale.tipo,!=,2 || evento.datiEventoMatrimonio.tipoAssistenteSposa,in,(1,2,3)</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -914,7 +929,7 @@
     <t>66,68,70,71,72,195,64,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>195,196</t>
@@ -1022,6 +1037,18 @@
     <t>attoNotarile</t>
   </si>
   <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>tipoAssistenteSposo</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>tipoAssistenteSposa</t>
+  </si>
+  <si>
     <t>Annotazione Contestuale</t>
   </si>
   <si>
@@ -1034,7 +1061,7 @@
     <t>tipoAnnotazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,1}</t>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.tipo,=,1</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -1099,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H530"/>
+  <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1108,10 +1135,10 @@
     <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="62.65625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="92.11328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="218.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6829,7 +6856,7 @@
         <v>31</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>215</v>
@@ -6838,7 +6865,7 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250">
@@ -6852,7 +6879,7 @@
         <v>31</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>218</v>
@@ -6861,7 +6888,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="251">
@@ -6875,7 +6902,7 @@
         <v>31</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>220</v>
@@ -6884,7 +6911,7 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252">
@@ -6898,7 +6925,7 @@
         <v>31</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>222</v>
@@ -6907,7 +6934,7 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253">
@@ -6921,7 +6948,7 @@
         <v>31</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>224</v>
@@ -6930,7 +6957,7 @@
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254">
@@ -6944,7 +6971,7 @@
         <v>31</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>226</v>
@@ -6953,7 +6980,7 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255">
@@ -6967,7 +6994,7 @@
         <v>31</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>228</v>
@@ -6976,12 +7003,12 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>213</v>
@@ -6990,7 +7017,7 @@
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>215</v>
@@ -6999,12 +7026,12 @@
         <v>35</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>217</v>
@@ -7013,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>218</v>
@@ -7022,12 +7049,12 @@
         <v>35</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>219</v>
@@ -7036,7 +7063,7 @@
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>220</v>
@@ -7045,12 +7072,12 @@
         <v>35</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>221</v>
@@ -7059,7 +7086,7 @@
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>222</v>
@@ -7068,12 +7095,12 @@
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>223</v>
@@ -7082,7 +7109,7 @@
         <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>224</v>
@@ -7091,12 +7118,12 @@
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>225</v>
@@ -7105,7 +7132,7 @@
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>226</v>
@@ -7114,12 +7141,12 @@
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>227</v>
@@ -7128,7 +7155,7 @@
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>228</v>
@@ -7137,12 +7164,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>213</v>
@@ -7151,7 +7178,7 @@
         <v>31</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>215</v>
@@ -7160,12 +7187,12 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>217</v>
@@ -7174,7 +7201,7 @@
         <v>31</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>218</v>
@@ -7183,12 +7210,12 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>219</v>
@@ -7197,7 +7224,7 @@
         <v>31</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>220</v>
@@ -7206,12 +7233,12 @@
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>221</v>
@@ -7220,7 +7247,7 @@
         <v>31</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>222</v>
@@ -7229,12 +7256,12 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>223</v>
@@ -7243,7 +7270,7 @@
         <v>31</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>224</v>
@@ -7252,12 +7279,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>225</v>
@@ -7266,7 +7293,7 @@
         <v>31</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>226</v>
@@ -7275,12 +7302,12 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>227</v>
@@ -7289,7 +7316,7 @@
         <v>31</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>228</v>
@@ -7298,12 +7325,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>213</v>
@@ -7312,7 +7339,7 @@
         <v>31</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>215</v>
@@ -7321,12 +7348,12 @@
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>217</v>
@@ -7335,7 +7362,7 @@
         <v>31</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>218</v>
@@ -7344,12 +7371,12 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>219</v>
@@ -7358,7 +7385,7 @@
         <v>31</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>220</v>
@@ -7367,12 +7394,12 @@
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>221</v>
@@ -7381,7 +7408,7 @@
         <v>31</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>222</v>
@@ -7390,12 +7417,12 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>223</v>
@@ -7404,7 +7431,7 @@
         <v>31</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>224</v>
@@ -7413,12 +7440,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>225</v>
@@ -7427,7 +7454,7 @@
         <v>31</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>226</v>
@@ -7436,12 +7463,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>227</v>
@@ -7450,7 +7477,7 @@
         <v>31</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>228</v>
@@ -7459,127 +7486,127 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>98</v>
@@ -7588,7 +7615,7 @@
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>117</v>
@@ -7602,7 +7629,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>100</v>
@@ -7611,7 +7638,7 @@
         <v>31</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>119</v>
@@ -7625,10 +7652,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>31</v>
@@ -7637,7 +7664,7 @@
         <v>89</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7648,7 +7675,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>98</v>
@@ -7657,7 +7684,7 @@
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>117</v>
@@ -7666,12 +7693,12 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>100</v>
@@ -7680,7 +7707,7 @@
         <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>119</v>
@@ -7689,12 +7716,12 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>120</v>
@@ -7703,7 +7730,7 @@
         <v>31</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>121</v>
@@ -7712,12 +7739,12 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>122</v>
@@ -7726,7 +7753,7 @@
         <v>31</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>123</v>
@@ -7735,12 +7762,12 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>124</v>
@@ -7749,7 +7776,7 @@
         <v>31</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>125</v>
@@ -7758,12 +7785,12 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>126</v>
@@ -7772,7 +7799,7 @@
         <v>31</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>127</v>
@@ -7781,12 +7808,12 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>128</v>
@@ -7795,7 +7822,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>129</v>
@@ -7804,12 +7831,12 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>130</v>
@@ -7818,7 +7845,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>131</v>
@@ -7827,12 +7854,12 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>132</v>
@@ -7841,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>133</v>
@@ -7850,12 +7877,12 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>134</v>
@@ -7864,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>135</v>
@@ -7873,12 +7900,12 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>136</v>
@@ -7887,7 +7914,7 @@
         <v>31</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>137</v>
@@ -7896,12 +7923,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>138</v>
@@ -7910,7 +7937,7 @@
         <v>31</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>139</v>
@@ -7919,12 +7946,12 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>140</v>
@@ -7933,7 +7960,7 @@
         <v>31</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>141</v>
@@ -7942,12 +7969,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>142</v>
@@ -7956,7 +7983,7 @@
         <v>31</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>143</v>
@@ -7965,12 +7992,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>144</v>
@@ -7979,7 +8006,7 @@
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>145</v>
@@ -7988,12 +8015,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>146</v>
@@ -8002,7 +8029,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>147</v>
@@ -8011,12 +8038,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>148</v>
@@ -8025,7 +8052,7 @@
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>149</v>
@@ -8034,12 +8061,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>150</v>
@@ -8048,7 +8075,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>151</v>
@@ -8057,12 +8084,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>152</v>
@@ -8071,7 +8098,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>153</v>
@@ -8080,12 +8107,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>154</v>
@@ -8094,7 +8121,7 @@
         <v>31</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>155</v>
@@ -8103,12 +8130,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>156</v>
@@ -8117,7 +8144,7 @@
         <v>31</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>157</v>
@@ -8126,12 +8153,12 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>158</v>
@@ -8140,7 +8167,7 @@
         <v>31</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>159</v>
@@ -8149,12 +8176,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>213</v>
@@ -8163,7 +8190,7 @@
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>215</v>
@@ -8172,12 +8199,12 @@
         <v>30</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>217</v>
@@ -8186,7 +8213,7 @@
         <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>218</v>
@@ -8195,12 +8222,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>219</v>
@@ -8209,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>220</v>
@@ -8218,12 +8245,12 @@
         <v>30</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>221</v>
@@ -8232,7 +8259,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>222</v>
@@ -8241,12 +8268,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>223</v>
@@ -8255,7 +8282,7 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>224</v>
@@ -8264,12 +8291,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>225</v>
@@ -8278,7 +8305,7 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>226</v>
@@ -8287,12 +8314,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>227</v>
@@ -8301,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>228</v>
@@ -8310,35 +8337,35 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>98</v>
@@ -8347,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>117</v>
@@ -8356,12 +8383,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>100</v>
@@ -8370,7 +8397,7 @@
         <v>31</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>119</v>
@@ -8379,12 +8406,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>120</v>
@@ -8393,7 +8420,7 @@
         <v>31</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>121</v>
@@ -8402,12 +8429,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>122</v>
@@ -8416,7 +8443,7 @@
         <v>31</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>123</v>
@@ -8425,12 +8452,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>124</v>
@@ -8439,7 +8466,7 @@
         <v>31</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>125</v>
@@ -8448,12 +8475,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>126</v>
@@ -8462,7 +8489,7 @@
         <v>31</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>127</v>
@@ -8471,12 +8498,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>128</v>
@@ -8485,7 +8512,7 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>129</v>
@@ -8494,12 +8521,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>130</v>
@@ -8508,7 +8535,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>131</v>
@@ -8517,12 +8544,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>132</v>
@@ -8531,7 +8558,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>133</v>
@@ -8540,12 +8567,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>134</v>
@@ -8554,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>135</v>
@@ -8563,12 +8590,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>136</v>
@@ -8577,7 +8604,7 @@
         <v>31</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>137</v>
@@ -8586,12 +8613,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>138</v>
@@ -8600,7 +8627,7 @@
         <v>31</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>139</v>
@@ -8609,12 +8636,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>140</v>
@@ -8623,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>141</v>
@@ -8632,12 +8659,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>142</v>
@@ -8646,7 +8673,7 @@
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>143</v>
@@ -8655,12 +8682,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>144</v>
@@ -8669,7 +8696,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>145</v>
@@ -8678,12 +8705,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>146</v>
@@ -8692,7 +8719,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>147</v>
@@ -8701,12 +8728,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>148</v>
@@ -8715,7 +8742,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>149</v>
@@ -8724,12 +8751,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>150</v>
@@ -8738,7 +8765,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>151</v>
@@ -8747,12 +8774,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>152</v>
@@ -8761,7 +8788,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>153</v>
@@ -8770,12 +8797,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>154</v>
@@ -8784,7 +8811,7 @@
         <v>31</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>155</v>
@@ -8793,12 +8820,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>156</v>
@@ -8807,7 +8834,7 @@
         <v>31</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>157</v>
@@ -8816,12 +8843,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>158</v>
@@ -8830,7 +8857,7 @@
         <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>159</v>
@@ -8839,12 +8866,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>213</v>
@@ -8853,7 +8880,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>215</v>
@@ -8862,12 +8889,12 @@
         <v>30</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>217</v>
@@ -8876,7 +8903,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>218</v>
@@ -8885,12 +8912,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>219</v>
@@ -8899,7 +8926,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>220</v>
@@ -8908,12 +8935,12 @@
         <v>30</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>221</v>
@@ -8922,7 +8949,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>222</v>
@@ -8931,12 +8958,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>223</v>
@@ -8945,7 +8972,7 @@
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>224</v>
@@ -8954,12 +8981,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>225</v>
@@ -8968,7 +8995,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>226</v>
@@ -8977,12 +9004,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>227</v>
@@ -8991,7 +9018,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>228</v>
@@ -9000,35 +9027,35 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>98</v>
@@ -9037,7 +9064,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>117</v>
@@ -9046,12 +9073,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>100</v>
@@ -9060,7 +9087,7 @@
         <v>31</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>119</v>
@@ -9069,12 +9096,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>120</v>
@@ -9083,7 +9110,7 @@
         <v>31</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>121</v>
@@ -9092,12 +9119,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>122</v>
@@ -9106,7 +9133,7 @@
         <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>123</v>
@@ -9115,12 +9142,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>124</v>
@@ -9129,7 +9156,7 @@
         <v>31</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>125</v>
@@ -9138,12 +9165,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>126</v>
@@ -9152,7 +9179,7 @@
         <v>31</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>127</v>
@@ -9161,12 +9188,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>128</v>
@@ -9175,7 +9202,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>129</v>
@@ -9184,12 +9211,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>130</v>
@@ -9198,7 +9225,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>131</v>
@@ -9207,12 +9234,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>132</v>
@@ -9221,7 +9248,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>133</v>
@@ -9230,12 +9257,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>134</v>
@@ -9244,7 +9271,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>135</v>
@@ -9253,12 +9280,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>136</v>
@@ -9267,7 +9294,7 @@
         <v>31</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>137</v>
@@ -9276,12 +9303,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>138</v>
@@ -9290,7 +9317,7 @@
         <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>139</v>
@@ -9299,12 +9326,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>140</v>
@@ -9313,7 +9340,7 @@
         <v>31</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>141</v>
@@ -9322,12 +9349,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>142</v>
@@ -9336,7 +9363,7 @@
         <v>31</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>143</v>
@@ -9345,12 +9372,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>144</v>
@@ -9359,7 +9386,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>145</v>
@@ -9368,12 +9395,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>146</v>
@@ -9382,7 +9409,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>147</v>
@@ -9391,12 +9418,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>148</v>
@@ -9405,7 +9432,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>149</v>
@@ -9414,12 +9441,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>150</v>
@@ -9428,7 +9455,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>151</v>
@@ -9437,12 +9464,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>152</v>
@@ -9451,7 +9478,7 @@
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>153</v>
@@ -9460,12 +9487,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>154</v>
@@ -9474,7 +9501,7 @@
         <v>31</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>155</v>
@@ -9483,12 +9510,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>156</v>
@@ -9497,7 +9524,7 @@
         <v>31</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>157</v>
@@ -9506,12 +9533,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>158</v>
@@ -9520,7 +9547,7 @@
         <v>31</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>159</v>
@@ -9529,12 +9556,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>98</v>
@@ -9543,7 +9570,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>117</v>
@@ -9552,12 +9579,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>100</v>
@@ -9566,7 +9593,7 @@
         <v>31</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>119</v>
@@ -9575,12 +9602,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>120</v>
@@ -9589,7 +9616,7 @@
         <v>31</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>121</v>
@@ -9598,12 +9625,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>122</v>
@@ -9612,7 +9639,7 @@
         <v>31</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>123</v>
@@ -9621,12 +9648,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>124</v>
@@ -9635,7 +9662,7 @@
         <v>31</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>125</v>
@@ -9644,12 +9671,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>126</v>
@@ -9658,7 +9685,7 @@
         <v>31</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>127</v>
@@ -9667,12 +9694,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>128</v>
@@ -9681,7 +9708,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>129</v>
@@ -9690,12 +9717,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>130</v>
@@ -9704,7 +9731,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>131</v>
@@ -9713,12 +9740,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>132</v>
@@ -9727,7 +9754,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>133</v>
@@ -9736,12 +9763,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>134</v>
@@ -9750,7 +9777,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>135</v>
@@ -9759,12 +9786,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>136</v>
@@ -9773,7 +9800,7 @@
         <v>31</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>137</v>
@@ -9782,12 +9809,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>138</v>
@@ -9796,7 +9823,7 @@
         <v>31</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>139</v>
@@ -9805,12 +9832,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>140</v>
@@ -9819,7 +9846,7 @@
         <v>31</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>141</v>
@@ -9828,12 +9855,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>142</v>
@@ -9842,7 +9869,7 @@
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>143</v>
@@ -9851,12 +9878,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>144</v>
@@ -9865,7 +9892,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>145</v>
@@ -9874,12 +9901,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>146</v>
@@ -9888,7 +9915,7 @@
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>147</v>
@@ -9897,12 +9924,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>148</v>
@@ -9911,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>149</v>
@@ -9920,12 +9947,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>150</v>
@@ -9934,7 +9961,7 @@
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>151</v>
@@ -9943,12 +9970,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>152</v>
@@ -9957,7 +9984,7 @@
         <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>153</v>
@@ -9966,12 +9993,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>154</v>
@@ -9980,7 +10007,7 @@
         <v>31</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>155</v>
@@ -9989,12 +10016,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>156</v>
@@ -10003,7 +10030,7 @@
         <v>31</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>157</v>
@@ -10012,12 +10039,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>158</v>
@@ -10026,7 +10053,7 @@
         <v>31</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>159</v>
@@ -10035,12 +10062,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>98</v>
@@ -10049,7 +10076,7 @@
         <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>117</v>
@@ -10058,12 +10085,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>100</v>
@@ -10072,7 +10099,7 @@
         <v>31</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>119</v>
@@ -10081,12 +10108,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>120</v>
@@ -10095,7 +10122,7 @@
         <v>31</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>121</v>
@@ -10104,12 +10131,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>122</v>
@@ -10118,7 +10145,7 @@
         <v>31</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>123</v>
@@ -10127,12 +10154,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>124</v>
@@ -10141,7 +10168,7 @@
         <v>31</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>125</v>
@@ -10150,12 +10177,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>126</v>
@@ -10164,7 +10191,7 @@
         <v>31</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>127</v>
@@ -10173,12 +10200,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>128</v>
@@ -10187,7 +10214,7 @@
         <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>129</v>
@@ -10196,12 +10223,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>130</v>
@@ -10210,7 +10237,7 @@
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>131</v>
@@ -10219,12 +10246,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>132</v>
@@ -10233,7 +10260,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>133</v>
@@ -10242,12 +10269,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>134</v>
@@ -10256,7 +10283,7 @@
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>135</v>
@@ -10265,12 +10292,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>136</v>
@@ -10279,7 +10306,7 @@
         <v>31</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>137</v>
@@ -10288,12 +10315,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>138</v>
@@ -10302,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>139</v>
@@ -10311,12 +10338,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>140</v>
@@ -10325,7 +10352,7 @@
         <v>31</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>141</v>
@@ -10334,12 +10361,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>142</v>
@@ -10348,7 +10375,7 @@
         <v>31</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>143</v>
@@ -10357,12 +10384,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>144</v>
@@ -10371,7 +10398,7 @@
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>145</v>
@@ -10380,12 +10407,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>146</v>
@@ -10394,7 +10421,7 @@
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>147</v>
@@ -10403,12 +10430,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>148</v>
@@ -10417,7 +10444,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>149</v>
@@ -10426,12 +10453,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>150</v>
@@ -10440,7 +10467,7 @@
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>151</v>
@@ -10449,12 +10476,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>152</v>
@@ -10463,7 +10490,7 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>153</v>
@@ -10472,12 +10499,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>154</v>
@@ -10486,7 +10513,7 @@
         <v>31</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>155</v>
@@ -10495,12 +10522,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>156</v>
@@ -10509,7 +10536,7 @@
         <v>31</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>157</v>
@@ -10518,12 +10545,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>158</v>
@@ -10532,7 +10559,7 @@
         <v>31</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>159</v>
@@ -10541,12 +10568,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>98</v>
@@ -10555,7 +10582,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>117</v>
@@ -10564,12 +10591,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>100</v>
@@ -10578,7 +10605,7 @@
         <v>31</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>119</v>
@@ -10587,12 +10614,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>120</v>
@@ -10601,7 +10628,7 @@
         <v>31</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>121</v>
@@ -10610,12 +10637,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>122</v>
@@ -10624,7 +10651,7 @@
         <v>31</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>123</v>
@@ -10633,12 +10660,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>124</v>
@@ -10647,7 +10674,7 @@
         <v>31</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>125</v>
@@ -10656,12 +10683,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>126</v>
@@ -10670,7 +10697,7 @@
         <v>31</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>127</v>
@@ -10679,12 +10706,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>128</v>
@@ -10693,7 +10720,7 @@
         <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>129</v>
@@ -10702,12 +10729,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>130</v>
@@ -10716,7 +10743,7 @@
         <v>9</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>131</v>
@@ -10725,12 +10752,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>132</v>
@@ -10739,7 +10766,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>133</v>
@@ -10748,12 +10775,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>134</v>
@@ -10762,7 +10789,7 @@
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>135</v>
@@ -10771,12 +10798,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>136</v>
@@ -10785,7 +10812,7 @@
         <v>31</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>137</v>
@@ -10794,12 +10821,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>138</v>
@@ -10808,7 +10835,7 @@
         <v>31</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>139</v>
@@ -10817,12 +10844,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>140</v>
@@ -10831,7 +10858,7 @@
         <v>31</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>141</v>
@@ -10840,12 +10867,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>142</v>
@@ -10854,7 +10881,7 @@
         <v>31</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>143</v>
@@ -10863,12 +10890,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>144</v>
@@ -10877,7 +10904,7 @@
         <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>145</v>
@@ -10886,12 +10913,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>146</v>
@@ -10900,7 +10927,7 @@
         <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>147</v>
@@ -10909,12 +10936,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>148</v>
@@ -10923,7 +10950,7 @@
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>149</v>
@@ -10932,12 +10959,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>150</v>
@@ -10946,7 +10973,7 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>151</v>
@@ -10955,12 +10982,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>152</v>
@@ -10969,7 +10996,7 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>153</v>
@@ -10978,12 +11005,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>154</v>
@@ -10992,7 +11019,7 @@
         <v>31</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>155</v>
@@ -11001,12 +11028,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>156</v>
@@ -11015,7 +11042,7 @@
         <v>31</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>157</v>
@@ -11024,12 +11051,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>158</v>
@@ -11038,7 +11065,7 @@
         <v>31</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>159</v>
@@ -11047,90 +11074,90 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>222</v>
@@ -11139,44 +11166,44 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>226</v>
@@ -11185,35 +11212,35 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>98</v>
@@ -11222,7 +11249,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>117</v>
@@ -11231,12 +11258,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>100</v>
@@ -11245,7 +11272,7 @@
         <v>31</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>119</v>
@@ -11254,12 +11281,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>120</v>
@@ -11268,7 +11295,7 @@
         <v>31</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>121</v>
@@ -11277,12 +11304,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>122</v>
@@ -11291,7 +11318,7 @@
         <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>123</v>
@@ -11300,12 +11327,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>124</v>
@@ -11314,7 +11341,7 @@
         <v>31</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>125</v>
@@ -11323,12 +11350,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>126</v>
@@ -11337,7 +11364,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>127</v>
@@ -11346,12 +11373,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>128</v>
@@ -11360,7 +11387,7 @@
         <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>129</v>
@@ -11369,12 +11396,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>130</v>
@@ -11383,7 +11410,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>131</v>
@@ -11392,12 +11419,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>132</v>
@@ -11406,7 +11433,7 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>133</v>
@@ -11415,12 +11442,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>134</v>
@@ -11429,7 +11456,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>135</v>
@@ -11438,12 +11465,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>136</v>
@@ -11452,7 +11479,7 @@
         <v>31</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>137</v>
@@ -11461,12 +11488,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>138</v>
@@ -11475,7 +11502,7 @@
         <v>31</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>139</v>
@@ -11484,12 +11511,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>140</v>
@@ -11498,7 +11525,7 @@
         <v>31</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>141</v>
@@ -11507,12 +11534,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>142</v>
@@ -11521,7 +11548,7 @@
         <v>31</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>143</v>
@@ -11530,12 +11557,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>144</v>
@@ -11544,7 +11571,7 @@
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>145</v>
@@ -11553,12 +11580,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>146</v>
@@ -11567,7 +11594,7 @@
         <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>147</v>
@@ -11576,12 +11603,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>148</v>
@@ -11590,7 +11617,7 @@
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>149</v>
@@ -11599,12 +11626,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>150</v>
@@ -11613,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>151</v>
@@ -11622,12 +11649,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>152</v>
@@ -11636,7 +11663,7 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>153</v>
@@ -11645,12 +11672,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>154</v>
@@ -11659,7 +11686,7 @@
         <v>31</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>155</v>
@@ -11668,12 +11695,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>156</v>
@@ -11682,7 +11709,7 @@
         <v>31</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>157</v>
@@ -11691,12 +11718,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>158</v>
@@ -11705,7 +11732,7 @@
         <v>31</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>159</v>
@@ -11714,12 +11741,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>98</v>
@@ -11728,7 +11755,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>117</v>
@@ -11737,12 +11764,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>100</v>
@@ -11751,7 +11778,7 @@
         <v>31</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>119</v>
@@ -11760,12 +11787,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>120</v>
@@ -11774,7 +11801,7 @@
         <v>31</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>121</v>
@@ -11783,12 +11810,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>122</v>
@@ -11797,7 +11824,7 @@
         <v>31</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>123</v>
@@ -11806,12 +11833,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>124</v>
@@ -11820,7 +11847,7 @@
         <v>31</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>125</v>
@@ -11829,12 +11856,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>126</v>
@@ -11843,7 +11870,7 @@
         <v>31</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>127</v>
@@ -11852,12 +11879,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>128</v>
@@ -11866,7 +11893,7 @@
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>129</v>
@@ -11875,12 +11902,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>130</v>
@@ -11889,7 +11916,7 @@
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>131</v>
@@ -11898,12 +11925,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>132</v>
@@ -11912,7 +11939,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>133</v>
@@ -11921,12 +11948,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>134</v>
@@ -11935,7 +11962,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>135</v>
@@ -11944,12 +11971,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>136</v>
@@ -11958,7 +11985,7 @@
         <v>31</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>137</v>
@@ -11967,12 +11994,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>138</v>
@@ -11981,7 +12008,7 @@
         <v>31</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>139</v>
@@ -11990,12 +12017,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>140</v>
@@ -12004,7 +12031,7 @@
         <v>31</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>141</v>
@@ -12013,12 +12040,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>142</v>
@@ -12027,7 +12054,7 @@
         <v>31</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>143</v>
@@ -12036,12 +12063,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>144</v>
@@ -12050,7 +12077,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>145</v>
@@ -12059,12 +12086,12 @@
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>146</v>
@@ -12073,7 +12100,7 @@
         <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>147</v>
@@ -12082,12 +12109,12 @@
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>148</v>
@@ -12096,7 +12123,7 @@
         <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>149</v>
@@ -12105,12 +12132,12 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>150</v>
@@ -12119,7 +12146,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>151</v>
@@ -12128,12 +12155,12 @@
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>152</v>
@@ -12142,7 +12169,7 @@
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>153</v>
@@ -12151,12 +12178,12 @@
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>154</v>
@@ -12165,7 +12192,7 @@
         <v>31</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>155</v>
@@ -12174,12 +12201,12 @@
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>156</v>
@@ -12188,7 +12215,7 @@
         <v>31</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>157</v>
@@ -12197,12 +12224,12 @@
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>158</v>
@@ -12211,7 +12238,7 @@
         <v>31</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>159</v>
@@ -12220,90 +12247,90 @@
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>222</v>
@@ -12312,44 +12339,44 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>226</v>
@@ -12358,35 +12385,35 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>98</v>
@@ -12395,21 +12422,21 @@
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>100</v>
@@ -12418,7 +12445,7 @@
         <v>31</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>119</v>
@@ -12427,12 +12454,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>120</v>
@@ -12441,7 +12468,7 @@
         <v>31</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>121</v>
@@ -12450,12 +12477,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>122</v>
@@ -12464,7 +12491,7 @@
         <v>31</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>123</v>
@@ -12473,12 +12500,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>124</v>
@@ -12487,7 +12514,7 @@
         <v>31</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>125</v>
@@ -12496,12 +12523,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>126</v>
@@ -12510,7 +12537,7 @@
         <v>31</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>127</v>
@@ -12519,12 +12546,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>128</v>
@@ -12533,7 +12560,7 @@
         <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>129</v>
@@ -12542,12 +12569,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>130</v>
@@ -12556,21 +12583,21 @@
         <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>132</v>
@@ -12579,7 +12606,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>133</v>
@@ -12588,12 +12615,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>134</v>
@@ -12602,21 +12629,21 @@
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>136</v>
@@ -12625,7 +12652,7 @@
         <v>31</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>137</v>
@@ -12634,12 +12661,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>138</v>
@@ -12648,7 +12675,7 @@
         <v>31</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>139</v>
@@ -12657,12 +12684,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>140</v>
@@ -12671,7 +12698,7 @@
         <v>31</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>141</v>
@@ -12680,12 +12707,12 @@
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>142</v>
@@ -12694,7 +12721,7 @@
         <v>31</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>143</v>
@@ -12703,12 +12730,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>144</v>
@@ -12717,7 +12744,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>145</v>
@@ -12726,12 +12753,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>146</v>
@@ -12740,21 +12767,21 @@
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>148</v>
@@ -12763,7 +12790,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>149</v>
@@ -12772,12 +12799,12 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>150</v>
@@ -12786,21 +12813,21 @@
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>152</v>
@@ -12809,21 +12836,21 @@
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>154</v>
@@ -12832,7 +12859,7 @@
         <v>31</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>155</v>
@@ -12841,12 +12868,12 @@
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>156</v>
@@ -12855,7 +12882,7 @@
         <v>31</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>157</v>
@@ -12864,12 +12891,12 @@
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>158</v>
@@ -12878,7 +12905,7 @@
         <v>31</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>159</v>
@@ -12887,15 +12914,15 @@
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>31</v>
@@ -12904,7 +12931,7 @@
         <v>89</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
@@ -12915,10 +12942,10 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>9</v>
@@ -12927,10 +12954,10 @@
         <v>89</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G514" s="2" t="s">
         <v>61</v>
@@ -12938,10 +12965,10 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>31</v>
@@ -12950,7 +12977,7 @@
         <v>89</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
@@ -12961,10 +12988,10 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>9</v>
@@ -12973,7 +13000,7 @@
         <v>89</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
@@ -12984,10 +13011,10 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>31</v>
@@ -12996,7 +13023,7 @@
         <v>59</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
@@ -13007,10 +13034,10 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>31</v>
@@ -13019,7 +13046,7 @@
         <v>89</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
@@ -13030,10 +13057,10 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>31</v>
@@ -13042,7 +13069,7 @@
         <v>89</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
@@ -13053,10 +13080,10 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>31</v>
@@ -13065,7 +13092,7 @@
         <v>89</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
@@ -13076,10 +13103,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>31</v>
@@ -13088,7 +13115,7 @@
         <v>89</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -13099,10 +13126,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>31</v>
@@ -13111,7 +13138,7 @@
         <v>89</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
@@ -13122,10 +13149,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>31</v>
@@ -13134,7 +13161,7 @@
         <v>89</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13145,10 +13172,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>31</v>
@@ -13157,7 +13184,7 @@
         <v>89</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13168,10 +13195,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>31</v>
@@ -13180,7 +13207,7 @@
         <v>89</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13191,10 +13218,10 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>31</v>
@@ -13203,7 +13230,7 @@
         <v>89</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
@@ -13214,19 +13241,19 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
@@ -13237,19 +13264,19 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
@@ -13260,48 +13287,94 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>340</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -2463,7 +2463,7 @@
         <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>99</v>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>61</v>
@@ -2509,7 +2509,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>99</v>
@@ -2532,7 +2532,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>99</v>
@@ -2555,7 +2555,7 @@
         <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>99</v>
@@ -2578,7 +2578,7 @@
         <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>99</v>
@@ -2693,7 +2693,7 @@
         <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>99</v>
@@ -2716,7 +2716,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>99</v>
@@ -2739,7 +2739,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>99</v>
@@ -2762,7 +2762,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>99</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -4447,7 +4447,7 @@
         <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>164</v>
@@ -4470,7 +4470,7 @@
         <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>164</v>
@@ -4479,7 +4479,7 @@
         <v>124</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>165</v>
@@ -4976,7 +4976,7 @@
         <v>121</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>167</v>
@@ -4999,7 +4999,7 @@
         <v>123</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>167</v>
@@ -5008,7 +5008,7 @@
         <v>124</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>168</v>
@@ -5505,7 +5505,7 @@
         <v>121</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>170</v>
@@ -5528,7 +5528,7 @@
         <v>123</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>170</v>
@@ -6034,7 +6034,7 @@
         <v>121</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>173</v>
@@ -6057,7 +6057,7 @@
         <v>123</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>173</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="356">
   <si>
     <t>Sezione</t>
   </si>
@@ -932,10 +932,13 @@
     <t>66,68,70,71,72,195,64,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -13736,7 +13739,7 @@
         <v>303</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>31</v>
@@ -13756,10 +13759,10 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>31</v>
@@ -13768,7 +13771,7 @@
         <v>89</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
@@ -13779,10 +13782,10 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>9</v>
@@ -13791,10 +13794,10 @@
         <v>89</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G550" s="2" t="s">
         <v>61</v>
@@ -13802,10 +13805,10 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>31</v>
@@ -13814,7 +13817,7 @@
         <v>89</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>10</v>
@@ -13825,10 +13828,10 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>9</v>
@@ -13837,7 +13840,7 @@
         <v>89</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>10</v>
@@ -13848,10 +13851,10 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>31</v>
@@ -13860,7 +13863,7 @@
         <v>59</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
@@ -13871,10 +13874,10 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>31</v>
@@ -13883,7 +13886,7 @@
         <v>89</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
@@ -13894,10 +13897,10 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>31</v>
@@ -13906,7 +13909,7 @@
         <v>89</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
@@ -13917,10 +13920,10 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>31</v>
@@ -13929,7 +13932,7 @@
         <v>89</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
@@ -13940,10 +13943,10 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>31</v>
@@ -13952,7 +13955,7 @@
         <v>89</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>10</v>
@@ -13963,10 +13966,10 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>31</v>
@@ -13975,7 +13978,7 @@
         <v>89</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>10</v>
@@ -13986,10 +13989,10 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>31</v>
@@ -13998,7 +14001,7 @@
         <v>89</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>10</v>
@@ -14009,10 +14012,10 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>31</v>
@@ -14021,7 +14024,7 @@
         <v>89</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>10</v>
@@ -14032,10 +14035,10 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>31</v>
@@ -14044,7 +14047,7 @@
         <v>89</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>10</v>
@@ -14055,10 +14058,10 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>31</v>
@@ -14067,7 +14070,7 @@
         <v>89</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>10</v>
@@ -14078,10 +14081,10 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>31</v>
@@ -14090,7 +14093,7 @@
         <v>248</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>10</v>
@@ -14101,10 +14104,10 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>31</v>
@@ -14113,7 +14116,7 @@
         <v>248</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>10</v>
@@ -14124,10 +14127,10 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>9</v>
@@ -14136,7 +14139,7 @@
         <v>89</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F565" s="2" t="s">
         <v>10</v>
@@ -14147,10 +14150,10 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>9</v>
@@ -14159,7 +14162,7 @@
         <v>89</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>10</v>
@@ -14170,71 +14173,71 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F567" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G568" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E568" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G568" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F569" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -15571,7 +15571,7 @@
         <v>119</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D624" s="2" t="s">
         <v>333</v>
@@ -15594,7 +15594,7 @@
         <v>121</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D625" s="2" t="s">
         <v>333</v>
@@ -15603,7 +15603,7 @@
         <v>122</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="G625" s="2" t="s">
         <v>335</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="383">
   <si>
     <t>Sezione</t>
   </si>
@@ -1155,6 +1155,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -16339,6 +16345,29 @@
         <v>376</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_005.xlsx
@@ -6070,7 +6070,7 @@
         <v>94</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>192</v>
@@ -6185,7 +6185,7 @@
         <v>104</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>192</v>
@@ -6300,7 +6300,7 @@
         <v>114</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>192</v>
@@ -6346,7 +6346,7 @@
         <v>118</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>192</v>
@@ -6369,7 +6369,7 @@
         <v>120</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>192</v>
@@ -6415,7 +6415,7 @@
         <v>124</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>192</v>
@@ -6438,7 +6438,7 @@
         <v>126</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>192</v>
@@ -6461,7 +6461,7 @@
         <v>128</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>192</v>
@@ -6507,7 +6507,7 @@
         <v>132</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>192</v>
@@ -6553,7 +6553,7 @@
         <v>136</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>192</v>
@@ -6599,7 +6599,7 @@
         <v>140</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>192</v>
@@ -6622,7 +6622,7 @@
         <v>142</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>192</v>
@@ -6714,7 +6714,7 @@
         <v>94</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>195</v>
@@ -6829,7 +6829,7 @@
         <v>104</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>195</v>
@@ -6944,7 +6944,7 @@
         <v>114</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>195</v>
@@ -6990,7 +6990,7 @@
         <v>118</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>195</v>
@@ -7013,7 +7013,7 @@
         <v>120</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>195</v>
@@ -7059,7 +7059,7 @@
         <v>124</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>195</v>
@@ -7082,7 +7082,7 @@
         <v>126</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>195</v>
@@ -7105,7 +7105,7 @@
         <v>128</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>195</v>
@@ -7151,7 +7151,7 @@
         <v>132</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>195</v>
@@ -7197,7 +7197,7 @@
         <v>136</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>195</v>
@@ -7243,7 +7243,7 @@
         <v>140</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>195</v>
@@ -7266,7 +7266,7 @@
         <v>142</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>195</v>
